--- a/config_hlw/lottery_config_low.xlsx
+++ b/config_hlw/lottery_config_low.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="690" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main|幸运抽奖" sheetId="4" r:id="rId1"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="C2" s="2">
-        <v>600000</v>
+        <v>60000</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -662,10 +662,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
       <c r="C3" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D21"/>
     </sheetView>
   </sheetViews>
